--- a/data/pca/factorExposure/factorExposure_2011-11-10.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-11-10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.009542953352196695</v>
+        <v>0.01255127963130879</v>
       </c>
       <c r="C2">
-        <v>-0.03158147633100768</v>
+        <v>0.02069701037013725</v>
       </c>
       <c r="D2">
-        <v>0.01733328692306919</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.02478358075859538</v>
+      </c>
+      <c r="E2">
+        <v>0.00777010201774711</v>
+      </c>
+      <c r="F2">
+        <v>-0.03220200164542735</v>
+      </c>
+      <c r="G2">
+        <v>-0.001402656547910508</v>
+      </c>
+      <c r="H2">
+        <v>0.01898592511169168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.07346276429694618</v>
+        <v>0.08784506973066505</v>
       </c>
       <c r="C4">
-        <v>-0.06322681327254713</v>
+        <v>0.02212758203309397</v>
       </c>
       <c r="D4">
-        <v>0.07033534419677133</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08053274410400017</v>
+      </c>
+      <c r="E4">
+        <v>0.01199458312030562</v>
+      </c>
+      <c r="F4">
+        <v>-0.04304033286951221</v>
+      </c>
+      <c r="G4">
+        <v>-0.02131023331886242</v>
+      </c>
+      <c r="H4">
+        <v>-0.03661116105372991</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1078893646593369</v>
+        <v>0.1224248245378972</v>
       </c>
       <c r="C6">
-        <v>-0.06233831188156759</v>
+        <v>0.04103561622334934</v>
       </c>
       <c r="D6">
-        <v>-0.0008279323910985837</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.02151258080196489</v>
+      </c>
+      <c r="E6">
+        <v>-0.02191209064831473</v>
+      </c>
+      <c r="F6">
+        <v>-0.03920639376235655</v>
+      </c>
+      <c r="G6">
+        <v>-0.04407163371444412</v>
+      </c>
+      <c r="H6">
+        <v>0.1682304406947877</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.05562502766470412</v>
+        <v>0.06509160567870301</v>
       </c>
       <c r="C7">
-        <v>-0.03975149537343762</v>
+        <v>0.008083528027471157</v>
       </c>
       <c r="D7">
-        <v>0.02972202278632768</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05638280770264461</v>
+      </c>
+      <c r="E7">
+        <v>0.02714345361716367</v>
+      </c>
+      <c r="F7">
+        <v>-0.04578619327640166</v>
+      </c>
+      <c r="G7">
+        <v>0.02598509534915521</v>
+      </c>
+      <c r="H7">
+        <v>-0.0242919854753209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.04116001762655498</v>
+        <v>0.04434599196373547</v>
       </c>
       <c r="C8">
-        <v>-0.01819673925971646</v>
+        <v>0.002917444049310705</v>
       </c>
       <c r="D8">
-        <v>0.06164406717859636</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03084334714113915</v>
+      </c>
+      <c r="E8">
+        <v>0.007700810471741518</v>
+      </c>
+      <c r="F8">
+        <v>-0.07259643660958368</v>
+      </c>
+      <c r="G8">
+        <v>-0.0861298816354632</v>
+      </c>
+      <c r="H8">
+        <v>0.007909744362893257</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.07134389942039331</v>
+        <v>0.08071142853470395</v>
       </c>
       <c r="C9">
-        <v>-0.05054504134247053</v>
+        <v>0.01221788447252112</v>
       </c>
       <c r="D9">
-        <v>0.06544254264061751</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.07068135684321225</v>
+      </c>
+      <c r="E9">
+        <v>0.02534826913637906</v>
+      </c>
+      <c r="F9">
+        <v>-0.03752898691248695</v>
+      </c>
+      <c r="G9">
+        <v>-0.03200941607708065</v>
+      </c>
+      <c r="H9">
+        <v>-0.04040456130222109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.02192525054801446</v>
+        <v>0.04915136213203362</v>
       </c>
       <c r="C10">
-        <v>-0.01515178587450204</v>
+        <v>0.1077792275071651</v>
       </c>
       <c r="D10">
-        <v>-0.1719545528070182</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1600280261519715</v>
+      </c>
+      <c r="E10">
+        <v>0.03032481667229414</v>
+      </c>
+      <c r="F10">
+        <v>-0.05894393206797353</v>
+      </c>
+      <c r="G10">
+        <v>0.0336275285563218</v>
+      </c>
+      <c r="H10">
+        <v>0.04059920532093705</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.06729473329796039</v>
+        <v>0.07332455746449251</v>
       </c>
       <c r="C11">
-        <v>-0.04484512555760303</v>
+        <v>0.004502283273766273</v>
       </c>
       <c r="D11">
-        <v>0.05732288026174506</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.0654781469973217</v>
+      </c>
+      <c r="E11">
+        <v>0.004119014075224567</v>
+      </c>
+      <c r="F11">
+        <v>-0.03565401797946309</v>
+      </c>
+      <c r="G11">
+        <v>-0.04428386158632493</v>
+      </c>
+      <c r="H11">
+        <v>-0.06350059267714785</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.0584302656782317</v>
+        <v>0.06729044294065263</v>
       </c>
       <c r="C12">
-        <v>-0.05505198352704448</v>
+        <v>0.01786991318492706</v>
       </c>
       <c r="D12">
-        <v>0.04492857889223172</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.05810759385517392</v>
+      </c>
+      <c r="E12">
+        <v>0.01056161935001796</v>
+      </c>
+      <c r="F12">
+        <v>-0.02526879176810676</v>
+      </c>
+      <c r="G12">
+        <v>-0.02024073820395301</v>
+      </c>
+      <c r="H12">
+        <v>-0.02743717718329998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.06940701631369833</v>
+        <v>0.07013974698532198</v>
       </c>
       <c r="C13">
-        <v>-0.0526340873814889</v>
+        <v>0.01770460795920231</v>
       </c>
       <c r="D13">
-        <v>0.03276476482189293</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.04646687204414965</v>
+      </c>
+      <c r="E13">
+        <v>0.007961652703518531</v>
+      </c>
+      <c r="F13">
+        <v>-0.02026073467147056</v>
+      </c>
+      <c r="G13">
+        <v>-0.02343157978892972</v>
+      </c>
+      <c r="H13">
+        <v>-0.04791278995320986</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.0290149147094463</v>
+        <v>0.03925942774520615</v>
       </c>
       <c r="C14">
-        <v>-0.03126615506516537</v>
+        <v>0.02439083386947657</v>
       </c>
       <c r="D14">
-        <v>-0.006547170990012678</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.02027989477968791</v>
+      </c>
+      <c r="E14">
+        <v>0.02582679044676734</v>
+      </c>
+      <c r="F14">
+        <v>-0.0184037287399202</v>
+      </c>
+      <c r="G14">
+        <v>-0.01461674308088895</v>
+      </c>
+      <c r="H14">
+        <v>-0.06716113977426696</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.04056185759524467</v>
+        <v>0.03874121745853081</v>
       </c>
       <c r="C15">
-        <v>-0.014017507431529</v>
+        <v>0.000587599151676161</v>
       </c>
       <c r="D15">
-        <v>0.02223343692950475</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.01268343084090724</v>
+      </c>
+      <c r="E15">
+        <v>0.03271601478321791</v>
+      </c>
+      <c r="F15">
+        <v>-0.004304312661259894</v>
+      </c>
+      <c r="G15">
+        <v>-0.02996706981220572</v>
+      </c>
+      <c r="H15">
+        <v>-0.03344102850534096</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.0570530676762471</v>
+        <v>0.06959622084656394</v>
       </c>
       <c r="C16">
-        <v>-0.04189986703741334</v>
+        <v>0.007471988227795834</v>
       </c>
       <c r="D16">
-        <v>0.05458098739088079</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06610155334714948</v>
+      </c>
+      <c r="E16">
+        <v>0.007033429031873019</v>
+      </c>
+      <c r="F16">
+        <v>-0.03069590306130832</v>
+      </c>
+      <c r="G16">
+        <v>-0.01781935724473569</v>
+      </c>
+      <c r="H16">
+        <v>-0.04636004233973341</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.06367507656864169</v>
+        <v>0.06327587789589149</v>
       </c>
       <c r="C20">
-        <v>-0.03307384236017546</v>
+        <v>-0.0001559225912400197</v>
       </c>
       <c r="D20">
-        <v>0.04435996472886353</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.04296349128138695</v>
+      </c>
+      <c r="E20">
+        <v>0.006757738975890067</v>
+      </c>
+      <c r="F20">
+        <v>-0.02690362774195267</v>
+      </c>
+      <c r="G20">
+        <v>-0.01940065501410405</v>
+      </c>
+      <c r="H20">
+        <v>-0.04395989188578912</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.03288711065898185</v>
+        <v>0.02837467159888613</v>
       </c>
       <c r="C21">
-        <v>-0.008865825767702234</v>
+        <v>-0.008363314862424318</v>
       </c>
       <c r="D21">
-        <v>0.009902118525808148</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.01876907610462494</v>
+      </c>
+      <c r="E21">
+        <v>0.03988868196888539</v>
+      </c>
+      <c r="F21">
+        <v>0.013356061854467</v>
+      </c>
+      <c r="G21">
+        <v>-0.008745645474674183</v>
+      </c>
+      <c r="H21">
+        <v>0.03944952004510362</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.08212534898450276</v>
+        <v>0.07369038541696656</v>
       </c>
       <c r="C22">
-        <v>-0.08122451797736932</v>
+        <v>0.01682682364606497</v>
       </c>
       <c r="D22">
-        <v>0.1265595462517446</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.1045135895500222</v>
+      </c>
+      <c r="E22">
+        <v>0.6011595776191254</v>
+      </c>
+      <c r="F22">
+        <v>0.03670883454174137</v>
+      </c>
+      <c r="G22">
+        <v>0.1857475533618939</v>
+      </c>
+      <c r="H22">
+        <v>0.1483053093470614</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.08328363889033621</v>
+        <v>0.07467010420635883</v>
       </c>
       <c r="C23">
-        <v>-0.07977830608013768</v>
+        <v>0.01518256493714126</v>
       </c>
       <c r="D23">
-        <v>0.1278463195201127</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.1051144794075775</v>
+      </c>
+      <c r="E23">
+        <v>0.6035257861426313</v>
+      </c>
+      <c r="F23">
+        <v>0.03612331781601431</v>
+      </c>
+      <c r="G23">
+        <v>0.1801540546757262</v>
+      </c>
+      <c r="H23">
+        <v>0.1441713727051124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.07284365189984815</v>
+        <v>0.07918918975382985</v>
       </c>
       <c r="C24">
-        <v>-0.05384955777212439</v>
+        <v>0.0120166444754887</v>
       </c>
       <c r="D24">
-        <v>0.05882528658974694</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.06635848775925986</v>
+      </c>
+      <c r="E24">
+        <v>0.01383827203661638</v>
+      </c>
+      <c r="F24">
+        <v>-0.03770510017793386</v>
+      </c>
+      <c r="G24">
+        <v>-0.03832554201865245</v>
+      </c>
+      <c r="H24">
+        <v>-0.03038912557598998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.07198148070134698</v>
+        <v>0.07829488943377166</v>
       </c>
       <c r="C25">
-        <v>-0.05727446904006464</v>
+        <v>0.01844713765091724</v>
       </c>
       <c r="D25">
-        <v>0.05608607170187192</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.06053761923119445</v>
+      </c>
+      <c r="E25">
+        <v>0.0183321213188931</v>
+      </c>
+      <c r="F25">
+        <v>-0.0342106537279224</v>
+      </c>
+      <c r="G25">
+        <v>-0.04333251025575469</v>
+      </c>
+      <c r="H25">
+        <v>-0.03947971056589081</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.04404605282321</v>
+        <v>0.04523005387564077</v>
       </c>
       <c r="C26">
-        <v>-0.01665304838442315</v>
+        <v>-0.0001311242281169004</v>
       </c>
       <c r="D26">
-        <v>0.01057878225078198</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.01938150321104838</v>
+      </c>
+      <c r="E26">
+        <v>0.04536527812461719</v>
+      </c>
+      <c r="F26">
+        <v>-0.0289242716229665</v>
+      </c>
+      <c r="G26">
+        <v>-0.02733735029529311</v>
+      </c>
+      <c r="H26">
+        <v>-0.04606527623140573</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.0370200286019071</v>
+        <v>0.0690062102634284</v>
       </c>
       <c r="C28">
-        <v>-0.0477035073855676</v>
+        <v>0.1821974932868713</v>
       </c>
       <c r="D28">
-        <v>-0.314931222016984</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2631401082579539</v>
+      </c>
+      <c r="E28">
+        <v>0.03403948623182133</v>
+      </c>
+      <c r="F28">
+        <v>-0.05201453645821566</v>
+      </c>
+      <c r="G28">
+        <v>-0.02686723832102755</v>
+      </c>
+      <c r="H28">
+        <v>0.05830979523880309</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.04298255466005513</v>
+        <v>0.04849520784334596</v>
       </c>
       <c r="C29">
-        <v>-0.04260467107902956</v>
+        <v>0.02861092954987708</v>
       </c>
       <c r="D29">
-        <v>-0.003780842099134183</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.02179402541310402</v>
+      </c>
+      <c r="E29">
+        <v>0.0516673804904383</v>
+      </c>
+      <c r="F29">
+        <v>-0.02182682604974985</v>
+      </c>
+      <c r="G29">
+        <v>-0.003432164038965822</v>
+      </c>
+      <c r="H29">
+        <v>-0.08760482236722862</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1314628968859638</v>
+        <v>0.1277737084395481</v>
       </c>
       <c r="C30">
-        <v>-0.1070292095176431</v>
+        <v>0.03682906905914777</v>
       </c>
       <c r="D30">
-        <v>0.1017436469315206</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.09689074049998038</v>
+      </c>
+      <c r="E30">
+        <v>0.05478065408266158</v>
+      </c>
+      <c r="F30">
+        <v>-0.01711130135284381</v>
+      </c>
+      <c r="G30">
+        <v>-0.07551010840224641</v>
+      </c>
+      <c r="H30">
+        <v>0.04698515248848563</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04849542984968364</v>
+        <v>0.04897946657166258</v>
       </c>
       <c r="C31">
-        <v>-0.02561564820208097</v>
+        <v>-0.0003218197620701382</v>
       </c>
       <c r="D31">
-        <v>0.01836080144057467</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.03649838271300059</v>
+      </c>
+      <c r="E31">
+        <v>0.02199001341169064</v>
+      </c>
+      <c r="F31">
+        <v>-0.01113873538646749</v>
+      </c>
+      <c r="G31">
+        <v>0.005586073635449367</v>
+      </c>
+      <c r="H31">
+        <v>-0.06616177787300921</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.03575523605871765</v>
+        <v>0.03904279200780102</v>
       </c>
       <c r="C32">
-        <v>-0.02641012610588108</v>
+        <v>0.01923278204173309</v>
       </c>
       <c r="D32">
-        <v>0.0292549076606569</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.01397995417550792</v>
+      </c>
+      <c r="E32">
+        <v>0.04394762531885489</v>
+      </c>
+      <c r="F32">
+        <v>-9.575982218996905e-05</v>
+      </c>
+      <c r="G32">
+        <v>-0.04556988398405884</v>
+      </c>
+      <c r="H32">
+        <v>-0.003629355055728139</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.08379567382108967</v>
+        <v>0.09315031502940987</v>
       </c>
       <c r="C33">
-        <v>-0.04804889130913872</v>
+        <v>0.009675925750132488</v>
       </c>
       <c r="D33">
-        <v>0.04722857099867522</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.05590206739023189</v>
+      </c>
+      <c r="E33">
+        <v>0.01364975805716187</v>
+      </c>
+      <c r="F33">
+        <v>-0.002582618198246452</v>
+      </c>
+      <c r="G33">
+        <v>-0.006181761582956155</v>
+      </c>
+      <c r="H33">
+        <v>-0.0624466811630836</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.05833111215842107</v>
+        <v>0.06691706042510835</v>
       </c>
       <c r="C34">
-        <v>-0.03007377287314106</v>
+        <v>0.0005323308985344827</v>
       </c>
       <c r="D34">
-        <v>0.05186992694379154</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.0486690440275521</v>
+      </c>
+      <c r="E34">
+        <v>0.01427582033278107</v>
+      </c>
+      <c r="F34">
+        <v>-0.02066043169440948</v>
+      </c>
+      <c r="G34">
+        <v>-0.02567000735786302</v>
+      </c>
+      <c r="H34">
+        <v>-0.05002730075411843</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.03598374465563327</v>
+        <v>0.03752373753102609</v>
       </c>
       <c r="C35">
-        <v>-0.01687083660659982</v>
+        <v>0.002729612098889997</v>
       </c>
       <c r="D35">
-        <v>0.01850566842475625</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01980154122534715</v>
+      </c>
+      <c r="E35">
+        <v>0.02188181386436937</v>
+      </c>
+      <c r="F35">
+        <v>0.01480443293630912</v>
+      </c>
+      <c r="G35">
+        <v>0.004222724387881327</v>
+      </c>
+      <c r="H35">
+        <v>-0.03498673231126274</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02628702769912316</v>
+        <v>0.02799999394700755</v>
       </c>
       <c r="C36">
-        <v>-0.02141478629537177</v>
+        <v>0.007761784117052226</v>
       </c>
       <c r="D36">
-        <v>0.01909684245497874</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.02176365407159548</v>
+      </c>
+      <c r="E36">
+        <v>0.03370424529977638</v>
+      </c>
+      <c r="F36">
+        <v>-0.02790344164817955</v>
+      </c>
+      <c r="G36">
+        <v>-0.01321687979171731</v>
+      </c>
+      <c r="H36">
+        <v>-0.04141095706413645</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.05045916926292406</v>
+        <v>0.0478919519946903</v>
       </c>
       <c r="C38">
-        <v>-0.01279964745885318</v>
+        <v>-0.00800167450675183</v>
       </c>
       <c r="D38">
-        <v>0.003664456555933186</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.02158130059213226</v>
+      </c>
+      <c r="E38">
+        <v>0.05043231173923106</v>
+      </c>
+      <c r="F38">
+        <v>0.001672516789980649</v>
+      </c>
+      <c r="G38">
+        <v>-0.002960450460339227</v>
+      </c>
+      <c r="H38">
+        <v>-0.02918716718884536</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.09015619862100466</v>
+        <v>0.1002438475224181</v>
       </c>
       <c r="C39">
-        <v>-0.07973813139451501</v>
+        <v>0.03282422634461634</v>
       </c>
       <c r="D39">
-        <v>0.04558699532896664</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.07636576670452672</v>
+      </c>
+      <c r="E39">
+        <v>0.003548826284908213</v>
+      </c>
+      <c r="F39">
+        <v>-0.003654702047713754</v>
+      </c>
+      <c r="G39">
+        <v>-0.05167487013501164</v>
+      </c>
+      <c r="H39">
+        <v>-0.02242651954702751</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.07979489323656255</v>
+        <v>0.05998649779137493</v>
       </c>
       <c r="C40">
-        <v>-0.04161241753701024</v>
+        <v>-0.008416579175378849</v>
       </c>
       <c r="D40">
-        <v>0.01113999184903713</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.0359614938966549</v>
+      </c>
+      <c r="E40">
+        <v>0.03966596987760603</v>
+      </c>
+      <c r="F40">
+        <v>0.03811371018263794</v>
+      </c>
+      <c r="G40">
+        <v>-0.05936166552768047</v>
+      </c>
+      <c r="H40">
+        <v>0.08174323797731139</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.04419022048894654</v>
+        <v>0.04579539294864644</v>
       </c>
       <c r="C41">
-        <v>-0.01920224403411508</v>
+        <v>-0.005474447656677936</v>
       </c>
       <c r="D41">
-        <v>0.03185342836163357</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.03393212789823166</v>
+      </c>
+      <c r="E41">
+        <v>0.001051585406435147</v>
+      </c>
+      <c r="F41">
+        <v>0.01305456083237255</v>
+      </c>
+      <c r="G41">
+        <v>-0.005353925760822642</v>
+      </c>
+      <c r="H41">
+        <v>-0.03377649803125094</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.05349924081513222</v>
+        <v>0.05975346278378764</v>
       </c>
       <c r="C43">
-        <v>-0.03193945044017513</v>
+        <v>0.008913785523316124</v>
       </c>
       <c r="D43">
-        <v>0.006770914163030303</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.03440537543493613</v>
+      </c>
+      <c r="E43">
+        <v>0.01962951678354709</v>
+      </c>
+      <c r="F43">
+        <v>-0.01293270026509163</v>
+      </c>
+      <c r="G43">
+        <v>0.02036143683717968</v>
+      </c>
+      <c r="H43">
+        <v>-0.0595792585003635</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.09624064100837811</v>
+        <v>0.09482052980538626</v>
       </c>
       <c r="C44">
-        <v>-0.03680694862590056</v>
+        <v>-0.004911520174873563</v>
       </c>
       <c r="D44">
-        <v>0.04775127282404506</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.05433469778729358</v>
+      </c>
+      <c r="E44">
+        <v>0.07972037105155939</v>
+      </c>
+      <c r="F44">
+        <v>-0.08241039358266328</v>
+      </c>
+      <c r="G44">
+        <v>-0.07041946245163581</v>
+      </c>
+      <c r="H44">
+        <v>-0.05054907904704362</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02543412732479394</v>
+        <v>0.03805845228616019</v>
       </c>
       <c r="C46">
-        <v>-0.02340168049535032</v>
+        <v>0.01064522027874124</v>
       </c>
       <c r="D46">
-        <v>0.03073609789082144</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.03864233911145534</v>
+      </c>
+      <c r="E46">
+        <v>0.03146600314551513</v>
+      </c>
+      <c r="F46">
+        <v>-0.01645862032855139</v>
+      </c>
+      <c r="G46">
+        <v>0.0054932590736881</v>
+      </c>
+      <c r="H46">
+        <v>-0.03696537645295665</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.03287546150718062</v>
+        <v>0.04105006965784103</v>
       </c>
       <c r="C47">
-        <v>-0.02269971836295823</v>
+        <v>0.01496642295472207</v>
       </c>
       <c r="D47">
-        <v>-0.006684563239280821</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01358073625149079</v>
+      </c>
+      <c r="E47">
+        <v>0.04302043449939313</v>
+      </c>
+      <c r="F47">
+        <v>0.007956105542946261</v>
+      </c>
+      <c r="G47">
+        <v>0.03450921061132136</v>
+      </c>
+      <c r="H47">
+        <v>-0.02322065032468457</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.03696347406044807</v>
+        <v>0.03996306550333027</v>
       </c>
       <c r="C48">
-        <v>-0.03048098821499992</v>
+        <v>0.01149139655820477</v>
       </c>
       <c r="D48">
-        <v>0.02765408036050165</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.02458708156882078</v>
+      </c>
+      <c r="E48">
+        <v>0.04058674072054694</v>
+      </c>
+      <c r="F48">
+        <v>-0.007815364994606784</v>
+      </c>
+      <c r="G48">
+        <v>-0.02144597293464532</v>
+      </c>
+      <c r="H48">
+        <v>-0.02335888603500592</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.160750263529613</v>
+        <v>0.1960720211446753</v>
       </c>
       <c r="C49">
-        <v>-0.0550937003524699</v>
+        <v>0.02898333075957805</v>
       </c>
       <c r="D49">
-        <v>0.006274925687173809</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.0346633695232627</v>
+      </c>
+      <c r="E49">
+        <v>-0.1795209914402748</v>
+      </c>
+      <c r="F49">
+        <v>-0.03138829893743581</v>
+      </c>
+      <c r="G49">
+        <v>0.1357894909115797</v>
+      </c>
+      <c r="H49">
+        <v>0.2335307668144753</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.04471541169003646</v>
+        <v>0.04803023716942256</v>
       </c>
       <c r="C50">
-        <v>-0.03067691342497644</v>
+        <v>0.006939165090792451</v>
       </c>
       <c r="D50">
-        <v>0.02777083457226336</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.03889411355298675</v>
+      </c>
+      <c r="E50">
+        <v>0.02704934816228752</v>
+      </c>
+      <c r="F50">
+        <v>-0.007317506801444484</v>
+      </c>
+      <c r="G50">
+        <v>-6.744279309821873e-05</v>
+      </c>
+      <c r="H50">
+        <v>-0.07340919964614237</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02418255231267138</v>
+        <v>0.03335003713640327</v>
       </c>
       <c r="C51">
-        <v>-0.003965353397462868</v>
+        <v>0.002893129239838632</v>
       </c>
       <c r="D51">
-        <v>-0.003505086899469306</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.002448711264345287</v>
+      </c>
+      <c r="E51">
+        <v>0.005856542355069284</v>
+      </c>
+      <c r="F51">
+        <v>-0.01075479683474304</v>
+      </c>
+      <c r="G51">
+        <v>0.02007425559407624</v>
+      </c>
+      <c r="H51">
+        <v>0.01620176942333629</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1511186580710648</v>
+        <v>0.1607017096676043</v>
       </c>
       <c r="C53">
-        <v>-0.08479875667143943</v>
+        <v>0.04592819831899665</v>
       </c>
       <c r="D53">
-        <v>-0.01222422081072126</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.03465363245006771</v>
+      </c>
+      <c r="E53">
+        <v>-0.03011756812952061</v>
+      </c>
+      <c r="F53">
+        <v>0.0008166367361428818</v>
+      </c>
+      <c r="G53">
+        <v>0.01073077151707255</v>
+      </c>
+      <c r="H53">
+        <v>-0.1968162359001722</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.05862813980195691</v>
+        <v>0.060171231705246</v>
       </c>
       <c r="C54">
-        <v>-0.03485690413921886</v>
+        <v>0.01855549720452013</v>
       </c>
       <c r="D54">
-        <v>0.01640173468858443</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.01804868386252796</v>
+      </c>
+      <c r="E54">
+        <v>0.057607126324034</v>
+      </c>
+      <c r="F54">
+        <v>-0.01862602730028678</v>
+      </c>
+      <c r="G54">
+        <v>-0.05415877648905012</v>
+      </c>
+      <c r="H54">
+        <v>-0.04561203103448706</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09808684372782747</v>
+        <v>0.1005081609458367</v>
       </c>
       <c r="C55">
-        <v>-0.055510598744658</v>
+        <v>0.02197005845803104</v>
       </c>
       <c r="D55">
-        <v>0.005871226748215302</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.0352674578090952</v>
+      </c>
+      <c r="E55">
+        <v>-0.002600668077512501</v>
+      </c>
+      <c r="F55">
+        <v>-0.01951367624856393</v>
+      </c>
+      <c r="G55">
+        <v>-0.0110014313752691</v>
+      </c>
+      <c r="H55">
+        <v>-0.1521746553384575</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1477514493672782</v>
+        <v>0.1548258360760889</v>
       </c>
       <c r="C56">
-        <v>-0.08601256417706156</v>
+        <v>0.0358035049511433</v>
       </c>
       <c r="D56">
-        <v>-0.007919478650364464</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.05302022397739932</v>
+      </c>
+      <c r="E56">
+        <v>-0.01097693770616959</v>
+      </c>
+      <c r="F56">
+        <v>-0.02094837172064293</v>
+      </c>
+      <c r="G56">
+        <v>0.002326966144203959</v>
+      </c>
+      <c r="H56">
+        <v>-0.2008592515140756</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1313630628565288</v>
+        <v>0.0977109239327701</v>
       </c>
       <c r="C58">
-        <v>0.01957337170893607</v>
+        <v>-0.07524598062102679</v>
       </c>
       <c r="D58">
-        <v>0.05022533751437933</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.01056328178608524</v>
+      </c>
+      <c r="E58">
+        <v>0.1230920383898514</v>
+      </c>
+      <c r="F58">
+        <v>-0.03225042506758283</v>
+      </c>
+      <c r="G58">
+        <v>0.08979630987354567</v>
+      </c>
+      <c r="H58">
+        <v>0.2031578843399697</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1111096809408059</v>
+        <v>0.1463733331774264</v>
       </c>
       <c r="C59">
-        <v>-0.05970182472338018</v>
+        <v>0.2012106593733647</v>
       </c>
       <c r="D59">
-        <v>-0.4146935821932884</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.3105034608338212</v>
+      </c>
+      <c r="E59">
+        <v>0.02632688988798426</v>
+      </c>
+      <c r="F59">
+        <v>-0.005101821423955089</v>
+      </c>
+      <c r="G59">
+        <v>-0.006556420960612208</v>
+      </c>
+      <c r="H59">
+        <v>-0.01571617572301199</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2053920125270385</v>
+        <v>0.2370322583926216</v>
       </c>
       <c r="C60">
-        <v>-0.1045561070169288</v>
+        <v>0.0539484871247683</v>
       </c>
       <c r="D60">
-        <v>-0.003272234342976712</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.05994110698872965</v>
+      </c>
+      <c r="E60">
+        <v>-0.1266621893663226</v>
+      </c>
+      <c r="F60">
+        <v>-0.04242915033869867</v>
+      </c>
+      <c r="G60">
+        <v>0.01954049561617312</v>
+      </c>
+      <c r="H60">
+        <v>0.1519767578263658</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.07706668197889929</v>
+        <v>0.08484223779603786</v>
       </c>
       <c r="C61">
-        <v>-0.05055143373403872</v>
+        <v>0.01755485015361153</v>
       </c>
       <c r="D61">
-        <v>0.03005634794363503</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.0511634490786043</v>
+      </c>
+      <c r="E61">
+        <v>0.008734802045340165</v>
+      </c>
+      <c r="F61">
+        <v>-0.01442141909050175</v>
+      </c>
+      <c r="G61">
+        <v>-0.03081415570523395</v>
+      </c>
+      <c r="H61">
+        <v>-0.06760651554145845</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1304956688298918</v>
+        <v>0.1371379212242498</v>
       </c>
       <c r="C62">
-        <v>-0.05395698175375258</v>
+        <v>0.01109698711142629</v>
       </c>
       <c r="D62">
-        <v>-0.008959481856649975</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.04419839121125685</v>
+      </c>
+      <c r="E62">
+        <v>-0.03850165094373335</v>
+      </c>
+      <c r="F62">
+        <v>0.02406344503029454</v>
+      </c>
+      <c r="G62">
+        <v>-0.02460653082282415</v>
+      </c>
+      <c r="H62">
+        <v>-0.1976532831271716</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.04969646124328819</v>
+        <v>0.04829910805362107</v>
       </c>
       <c r="C63">
-        <v>-0.02734863453304436</v>
+        <v>0.007013899193756562</v>
       </c>
       <c r="D63">
-        <v>0.02329778806327849</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.02600092762101381</v>
+      </c>
+      <c r="E63">
+        <v>0.03906669614655065</v>
+      </c>
+      <c r="F63">
+        <v>-0.001580297184262519</v>
+      </c>
+      <c r="G63">
+        <v>-0.03660969364347356</v>
+      </c>
+      <c r="H63">
+        <v>-0.0393184000223508</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1061846130735857</v>
+        <v>0.1108849317460917</v>
       </c>
       <c r="C64">
-        <v>-0.04513283740887266</v>
+        <v>0.01688798630707199</v>
       </c>
       <c r="D64">
-        <v>0.01442769176782253</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.03015720029017238</v>
+      </c>
+      <c r="E64">
+        <v>0.04367843790006318</v>
+      </c>
+      <c r="F64">
+        <v>-0.04844106796894971</v>
+      </c>
+      <c r="G64">
+        <v>-0.05634547963681743</v>
+      </c>
+      <c r="H64">
+        <v>-0.0235022393727526</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.124106968097872</v>
+        <v>0.1310978875650002</v>
       </c>
       <c r="C65">
-        <v>-0.06883121553578356</v>
+        <v>0.04554119634455943</v>
       </c>
       <c r="D65">
-        <v>0.004094175136616802</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.02331220191800871</v>
+      </c>
+      <c r="E65">
+        <v>-0.0007333188910210544</v>
+      </c>
+      <c r="F65">
+        <v>-0.02491541622668471</v>
+      </c>
+      <c r="G65">
+        <v>-0.06898520948190272</v>
+      </c>
+      <c r="H65">
+        <v>0.1961790506374456</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1489997998980955</v>
+        <v>0.1522629146766071</v>
       </c>
       <c r="C66">
-        <v>-0.09317769832779804</v>
+        <v>0.01648101529798793</v>
       </c>
       <c r="D66">
-        <v>0.08901587181033316</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1127779580343072</v>
+      </c>
+      <c r="E66">
+        <v>-0.02257650544150339</v>
+      </c>
+      <c r="F66">
+        <v>-0.00444315002568752</v>
+      </c>
+      <c r="G66">
+        <v>-0.07445473635806134</v>
+      </c>
+      <c r="H66">
+        <v>-0.08626528364961641</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.07867957430294044</v>
+        <v>0.0860081104339851</v>
       </c>
       <c r="C67">
-        <v>-0.02047089710426581</v>
+        <v>-0.005399316368798548</v>
       </c>
       <c r="D67">
-        <v>0.01337501260528003</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.03448575453760849</v>
+      </c>
+      <c r="E67">
+        <v>0.0191857952475087</v>
+      </c>
+      <c r="F67">
+        <v>-0.01437320084415557</v>
+      </c>
+      <c r="G67">
+        <v>0.01160227649756551</v>
+      </c>
+      <c r="H67">
+        <v>-0.02767920306897663</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.04505792242648957</v>
+        <v>0.06307812813347924</v>
       </c>
       <c r="C68">
-        <v>-0.03125492698040136</v>
+        <v>0.1493457607709298</v>
       </c>
       <c r="D68">
-        <v>-0.263237449562683</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2386610994901295</v>
+      </c>
+      <c r="E68">
+        <v>0.04497001901102067</v>
+      </c>
+      <c r="F68">
+        <v>-0.009739052656982095</v>
+      </c>
+      <c r="G68">
+        <v>0.001567853042554211</v>
+      </c>
+      <c r="H68">
+        <v>-0.01317598373554691</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05450062122316746</v>
+        <v>0.05232217809257149</v>
       </c>
       <c r="C69">
-        <v>-0.02451845100262475</v>
+        <v>0.001023520817794923</v>
       </c>
       <c r="D69">
-        <v>0.01753814171349663</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.02231135400133085</v>
+      </c>
+      <c r="E69">
+        <v>0.02306180112496569</v>
+      </c>
+      <c r="F69">
+        <v>0.01315653242483285</v>
+      </c>
+      <c r="G69">
+        <v>0.002577749113025793</v>
+      </c>
+      <c r="H69">
+        <v>-0.04388165078540754</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.008154129422188952</v>
+        <v>0.0315667968152628</v>
       </c>
       <c r="C70">
-        <v>0.003441035702301413</v>
+        <v>0.003983963408302267</v>
       </c>
       <c r="D70">
-        <v>-0.01147927215022485</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.006732024768737094</v>
+      </c>
+      <c r="E70">
+        <v>-0.02383060409871886</v>
+      </c>
+      <c r="F70">
+        <v>0.008666521842511618</v>
+      </c>
+      <c r="G70">
+        <v>0.02502094759217639</v>
+      </c>
+      <c r="H70">
+        <v>0.02374321249848204</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.04195179195171937</v>
+        <v>0.06851326094431272</v>
       </c>
       <c r="C71">
-        <v>-0.02966599605055175</v>
+        <v>0.1649115582574942</v>
       </c>
       <c r="D71">
-        <v>-0.2943639781886552</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2593636103641448</v>
+      </c>
+      <c r="E71">
+        <v>0.03993236385628674</v>
+      </c>
+      <c r="F71">
+        <v>-0.03901241053755652</v>
+      </c>
+      <c r="G71">
+        <v>0.00167169447846333</v>
+      </c>
+      <c r="H71">
+        <v>-0.01366864944629111</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1369222874816173</v>
+        <v>0.1417789857037685</v>
       </c>
       <c r="C72">
-        <v>-0.06195762430418659</v>
+        <v>0.03016228027299057</v>
       </c>
       <c r="D72">
-        <v>-0.01717482816767831</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.0102342670959242</v>
+      </c>
+      <c r="E72">
+        <v>-0.03830537154678344</v>
+      </c>
+      <c r="F72">
+        <v>0.1653671506666818</v>
+      </c>
+      <c r="G72">
+        <v>-0.1097178762120612</v>
+      </c>
+      <c r="H72">
+        <v>0.005944909535334568</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2816435249672427</v>
+        <v>0.2835395972608823</v>
       </c>
       <c r="C73">
-        <v>-0.09945729240282186</v>
+        <v>-0.01005021178929269</v>
       </c>
       <c r="D73">
-        <v>0.0404441358328483</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.09716269954092704</v>
+      </c>
+      <c r="E73">
+        <v>-0.2845569874099445</v>
+      </c>
+      <c r="F73">
+        <v>-0.05971701218476477</v>
+      </c>
+      <c r="G73">
+        <v>0.2445124697559415</v>
+      </c>
+      <c r="H73">
+        <v>0.4019800328040689</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.07690749938178477</v>
+        <v>0.08878297818846745</v>
       </c>
       <c r="C74">
-        <v>-0.07484499405981397</v>
+        <v>0.03930514519216181</v>
       </c>
       <c r="D74">
-        <v>0.002165009401947244</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.05491139885281428</v>
+      </c>
+      <c r="E74">
+        <v>-0.007209424239632861</v>
+      </c>
+      <c r="F74">
+        <v>-0.001387110908472813</v>
+      </c>
+      <c r="G74">
+        <v>0.03881192407723688</v>
+      </c>
+      <c r="H74">
+        <v>-0.1275402549598928</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.1008432633555773</v>
+        <v>0.1025090237366549</v>
       </c>
       <c r="C75">
-        <v>-0.05559557891375165</v>
+        <v>0.01528877026872957</v>
       </c>
       <c r="D75">
-        <v>-0.00222206960396043</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.0313649432422258</v>
+      </c>
+      <c r="E75">
+        <v>-0.0003670090797342995</v>
+      </c>
+      <c r="F75">
+        <v>-0.0003775111456075772</v>
+      </c>
+      <c r="G75">
+        <v>0.01052614753064065</v>
+      </c>
+      <c r="H75">
+        <v>-0.1005021206939084</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1264290337498293</v>
+        <v>0.1379026395455914</v>
       </c>
       <c r="C76">
-        <v>-0.07478870205224382</v>
+        <v>0.02858003828536695</v>
       </c>
       <c r="D76">
-        <v>0.01800645716423596</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.06560456037412653</v>
+      </c>
+      <c r="E76">
+        <v>0.01105302805459444</v>
+      </c>
+      <c r="F76">
+        <v>-0.03267762556041438</v>
+      </c>
+      <c r="G76">
+        <v>3.653922046605889e-06</v>
+      </c>
+      <c r="H76">
+        <v>-0.241047508086263</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1176476585472541</v>
+        <v>0.09868113164066004</v>
       </c>
       <c r="C77">
-        <v>-0.03401649335497527</v>
+        <v>-0.02139570044989681</v>
       </c>
       <c r="D77">
-        <v>0.0753044565074899</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.04017518226061341</v>
+      </c>
+      <c r="E77">
+        <v>0.05785716182655656</v>
+      </c>
+      <c r="F77">
+        <v>-0.06667074414263868</v>
+      </c>
+      <c r="G77">
+        <v>-0.8065227269859876</v>
+      </c>
+      <c r="H77">
+        <v>0.2713014923480699</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.1073514026808153</v>
+        <v>0.150515030518706</v>
       </c>
       <c r="C78">
-        <v>-0.05152075538959794</v>
+        <v>0.02215713440672879</v>
       </c>
       <c r="D78">
-        <v>0.08063957755165103</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.08742790456496384</v>
+      </c>
+      <c r="E78">
+        <v>0.04843010065166551</v>
+      </c>
+      <c r="F78">
+        <v>-0.05687655775986166</v>
+      </c>
+      <c r="G78">
+        <v>-0.03542459606944997</v>
+      </c>
+      <c r="H78">
+        <v>0.1006073211648274</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1385493360658777</v>
+        <v>0.1437784073863286</v>
       </c>
       <c r="C79">
-        <v>-0.07167497462616423</v>
+        <v>0.02024287938785083</v>
       </c>
       <c r="D79">
-        <v>0.02422841692632171</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.05457025264989778</v>
+      </c>
+      <c r="E79">
+        <v>-0.01108337642280312</v>
+      </c>
+      <c r="F79">
+        <v>-0.01815691058608023</v>
+      </c>
+      <c r="G79">
+        <v>-0.01570161754084413</v>
+      </c>
+      <c r="H79">
+        <v>-0.1706612517850067</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.04142857482705788</v>
+        <v>0.04175305691376569</v>
       </c>
       <c r="C80">
-        <v>-0.02201548796633218</v>
+        <v>0.005621847191110634</v>
       </c>
       <c r="D80">
-        <v>0.0282553336281614</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01936700680082189</v>
+      </c>
+      <c r="E80">
+        <v>-0.0425560267428224</v>
+      </c>
+      <c r="F80">
+        <v>-0.004015277662761697</v>
+      </c>
+      <c r="G80">
+        <v>0.01463201155859124</v>
+      </c>
+      <c r="H80">
+        <v>-0.03262358113665244</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1236699604901148</v>
+        <v>0.1273288660513584</v>
       </c>
       <c r="C81">
-        <v>-0.07528119332715881</v>
+        <v>0.03160703980854281</v>
       </c>
       <c r="D81">
-        <v>0.009406828774573084</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.03996740545046443</v>
+      </c>
+      <c r="E81">
+        <v>0.00118693946852745</v>
+      </c>
+      <c r="F81">
+        <v>-0.02546547061657987</v>
+      </c>
+      <c r="G81">
+        <v>0.007619667054326056</v>
+      </c>
+      <c r="H81">
+        <v>-0.1549153485100039</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1286744864501389</v>
+        <v>0.131184102281975</v>
       </c>
       <c r="C82">
-        <v>-0.07107609700897474</v>
+        <v>0.02931574574653635</v>
       </c>
       <c r="D82">
-        <v>0.007389770806759319</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.04327803988716955</v>
+      </c>
+      <c r="E82">
+        <v>-0.02039139558700653</v>
+      </c>
+      <c r="F82">
+        <v>-0.03831450894529492</v>
+      </c>
+      <c r="G82">
+        <v>0.01136910928966399</v>
+      </c>
+      <c r="H82">
+        <v>-0.2331797428854401</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.06457440767620473</v>
+        <v>0.08075071196164869</v>
       </c>
       <c r="C83">
-        <v>0.01972460052028576</v>
+        <v>-0.03395142676528934</v>
       </c>
       <c r="D83">
-        <v>0.02521977846286854</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.01274051766185239</v>
+      </c>
+      <c r="E83">
+        <v>0.01362096899811382</v>
+      </c>
+      <c r="F83">
+        <v>-0.03072534975421378</v>
+      </c>
+      <c r="G83">
+        <v>0.04918166946030689</v>
+      </c>
+      <c r="H83">
+        <v>0.01978048406345642</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.03124876418731847</v>
+        <v>0.03439457433426567</v>
       </c>
       <c r="C84">
-        <v>-0.04163401782777466</v>
+        <v>0.01142663577848761</v>
       </c>
       <c r="D84">
-        <v>0.03118754684289754</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.04869216168219958</v>
+      </c>
+      <c r="E84">
+        <v>0.02313212498318829</v>
+      </c>
+      <c r="F84">
+        <v>0.04107499060457057</v>
+      </c>
+      <c r="G84">
+        <v>0.02726836990971402</v>
+      </c>
+      <c r="H84">
+        <v>-0.02340943256341765</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1160251613028618</v>
+        <v>0.122237229906512</v>
       </c>
       <c r="C85">
-        <v>-0.04842422392978657</v>
+        <v>0.008020187165172651</v>
       </c>
       <c r="D85">
-        <v>0.04098869261969799</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.04510983839444192</v>
+      </c>
+      <c r="E85">
+        <v>0.009981166152896319</v>
+      </c>
+      <c r="F85">
+        <v>-0.0412995096276864</v>
+      </c>
+      <c r="G85">
+        <v>0.007916995768768071</v>
+      </c>
+      <c r="H85">
+        <v>-0.1424630263191637</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.04960282857059433</v>
+        <v>0.05167881298676114</v>
       </c>
       <c r="C86">
-        <v>-0.02886424646086151</v>
+        <v>-0.001939327077757897</v>
       </c>
       <c r="D86">
-        <v>0.07233309360574429</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.04320982088924348</v>
+      </c>
+      <c r="E86">
+        <v>0.03919244399689911</v>
+      </c>
+      <c r="F86">
+        <v>-0.02719976901931781</v>
+      </c>
+      <c r="G86">
+        <v>0.02258630179405587</v>
+      </c>
+      <c r="H86">
+        <v>0.06067149881789002</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.119447247411613</v>
+        <v>0.1247416061390458</v>
       </c>
       <c r="C87">
-        <v>-0.08238536900674254</v>
+        <v>0.01780356518729026</v>
       </c>
       <c r="D87">
-        <v>0.06001865189530533</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.08022125246542915</v>
+      </c>
+      <c r="E87">
+        <v>0.02900964974359869</v>
+      </c>
+      <c r="F87">
+        <v>-0.0269708809701021</v>
+      </c>
+      <c r="G87">
+        <v>-0.1488767721309646</v>
+      </c>
+      <c r="H87">
+        <v>0.06498569604103427</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05443326405555221</v>
+        <v>0.06305381108577479</v>
       </c>
       <c r="C88">
-        <v>-0.03833824894045186</v>
+        <v>0.01121443720674127</v>
       </c>
       <c r="D88">
-        <v>0.02448673498942007</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04753953182207909</v>
+      </c>
+      <c r="E88">
+        <v>0.001194312112887672</v>
+      </c>
+      <c r="F88">
+        <v>-0.02298008407553552</v>
+      </c>
+      <c r="G88">
+        <v>-0.009432517192579917</v>
+      </c>
+      <c r="H88">
+        <v>-0.04567679328056917</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.07239338627402964</v>
+        <v>0.1088640799285462</v>
       </c>
       <c r="C89">
-        <v>-0.05397249272752051</v>
+        <v>0.2087854896532847</v>
       </c>
       <c r="D89">
-        <v>-0.3248785228511297</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.3005980657104428</v>
+      </c>
+      <c r="E89">
+        <v>0.05020430556468591</v>
+      </c>
+      <c r="F89">
+        <v>-0.0725540211390158</v>
+      </c>
+      <c r="G89">
+        <v>0.02808740229881995</v>
+      </c>
+      <c r="H89">
+        <v>-0.0217322958074294</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.05575356398510366</v>
+        <v>0.08217730349481522</v>
       </c>
       <c r="C90">
-        <v>-0.03698825818798274</v>
+        <v>0.1615189008572446</v>
       </c>
       <c r="D90">
-        <v>-0.2811662642223437</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2486300701461002</v>
+      </c>
+      <c r="E90">
+        <v>0.05045595145544111</v>
+      </c>
+      <c r="F90">
+        <v>-0.02991889202626123</v>
+      </c>
+      <c r="G90">
+        <v>-0.03515528626112897</v>
+      </c>
+      <c r="H90">
+        <v>0.021452403726104</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.0912303523360731</v>
+        <v>0.09070027748473314</v>
       </c>
       <c r="C91">
-        <v>-0.05757139744420975</v>
+        <v>0.01664762623535505</v>
       </c>
       <c r="D91">
-        <v>0.003994616892638619</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.03908544780274037</v>
+      </c>
+      <c r="E91">
+        <v>0.003739103551691927</v>
+      </c>
+      <c r="F91">
+        <v>-0.004453808241480319</v>
+      </c>
+      <c r="G91">
+        <v>0.02338751488449931</v>
+      </c>
+      <c r="H91">
+        <v>-0.08577875650882029</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.05660790399644598</v>
+        <v>0.08182294656358639</v>
       </c>
       <c r="C92">
-        <v>-0.0442674401387362</v>
+        <v>0.1858005672115958</v>
       </c>
       <c r="D92">
-        <v>-0.3334291046566623</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2851555180510362</v>
+      </c>
+      <c r="E92">
+        <v>0.04567409216261362</v>
+      </c>
+      <c r="F92">
+        <v>-0.03680540198649498</v>
+      </c>
+      <c r="G92">
+        <v>-0.00499036256168963</v>
+      </c>
+      <c r="H92">
+        <v>-0.02441792061250453</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.04970243060333259</v>
+        <v>0.07938142285714528</v>
       </c>
       <c r="C93">
-        <v>-0.04437737429451766</v>
+        <v>0.1802605764562862</v>
       </c>
       <c r="D93">
-        <v>-0.3078544963811521</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2607161575543139</v>
+      </c>
+      <c r="E93">
+        <v>0.01740197732817894</v>
+      </c>
+      <c r="F93">
+        <v>-0.02890316193565338</v>
+      </c>
+      <c r="G93">
+        <v>-0.0199740822135046</v>
+      </c>
+      <c r="H93">
+        <v>-0.004636531108903118</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1289780778553978</v>
+        <v>0.1267341111608389</v>
       </c>
       <c r="C94">
-        <v>-0.04254832288595464</v>
+        <v>-0.007213269842594823</v>
       </c>
       <c r="D94">
-        <v>0.04007993990804232</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04535608037642129</v>
+      </c>
+      <c r="E94">
+        <v>-0.02095514134145151</v>
+      </c>
+      <c r="F94">
+        <v>-0.01816801422965015</v>
+      </c>
+      <c r="G94">
+        <v>0.04164321556469615</v>
+      </c>
+      <c r="H94">
+        <v>-0.1029637831774797</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1183391638231891</v>
+        <v>0.1303267361924994</v>
       </c>
       <c r="C95">
-        <v>-0.03806169128292936</v>
+        <v>-0.008141213543191011</v>
       </c>
       <c r="D95">
-        <v>0.05805884401206451</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.06187920022585452</v>
+      </c>
+      <c r="E95">
+        <v>0.0145609059674517</v>
+      </c>
+      <c r="F95">
+        <v>-0.05242673136818481</v>
+      </c>
+      <c r="G95">
+        <v>-0.04961988575836988</v>
+      </c>
+      <c r="H95">
+        <v>0.09864700568011946</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.2238079071846911</v>
+        <v>0.1923840632935951</v>
       </c>
       <c r="C97">
-        <v>-0.06102162753618319</v>
+        <v>0.005001335067284784</v>
       </c>
       <c r="D97">
-        <v>-0.1224212370748149</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.0563691082125236</v>
+      </c>
+      <c r="E97">
+        <v>-0.02395667986779239</v>
+      </c>
+      <c r="F97">
+        <v>0.9382848370761713</v>
+      </c>
+      <c r="G97">
+        <v>-0.05354476457133817</v>
+      </c>
+      <c r="H97">
+        <v>0.01352765203947347</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2399911635417897</v>
+        <v>0.2741525030393166</v>
       </c>
       <c r="C98">
-        <v>-0.06974520908620575</v>
+        <v>0.01434275723669579</v>
       </c>
       <c r="D98">
-        <v>0.008206220391426282</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.04659858936864957</v>
+      </c>
+      <c r="E98">
+        <v>-0.2190445834855415</v>
+      </c>
+      <c r="F98">
+        <v>-0.03700763711865107</v>
+      </c>
+      <c r="G98">
+        <v>0.281426869798699</v>
+      </c>
+      <c r="H98">
+        <v>0.1427448857819135</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.4445780455843944</v>
+        <v>0.2815245340069063</v>
       </c>
       <c r="C99">
-        <v>0.8786274574368089</v>
+        <v>-0.831768098467937</v>
       </c>
       <c r="D99">
-        <v>-0.01086865946317498</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.4365686924991554</v>
+      </c>
+      <c r="E99">
+        <v>0.0742781205216089</v>
+      </c>
+      <c r="F99">
+        <v>-0.07435740442765751</v>
+      </c>
+      <c r="G99">
+        <v>-0.007305737045366073</v>
+      </c>
+      <c r="H99">
+        <v>-0.06580773348528696</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.04302851367522973</v>
+        <v>0.04855696223514647</v>
       </c>
       <c r="C101">
-        <v>-0.04292025732289906</v>
+        <v>0.02879945297685719</v>
       </c>
       <c r="D101">
-        <v>-0.003599288626169439</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.02222872728337289</v>
+      </c>
+      <c r="E101">
+        <v>0.05137961905764929</v>
+      </c>
+      <c r="F101">
+        <v>-0.02190984517959315</v>
+      </c>
+      <c r="G101">
+        <v>-0.002295842226694338</v>
+      </c>
+      <c r="H101">
+        <v>-0.08627396579966383</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
